--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Epha2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H2">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I2">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J2">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N2">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O2">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P2">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q2">
-        <v>2.860302382037333</v>
+        <v>3.194436091888334</v>
       </c>
       <c r="R2">
-        <v>25.742721438336</v>
+        <v>28.749924826995</v>
       </c>
       <c r="S2">
-        <v>0.04365241302456836</v>
+        <v>0.06860675338764192</v>
       </c>
       <c r="T2">
-        <v>0.05804688486753731</v>
+        <v>0.08740490524153602</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H3">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I3">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J3">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.241754</v>
       </c>
       <c r="O3">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P3">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q3">
-        <v>0.1287185256746667</v>
+        <v>0.1836507147744444</v>
       </c>
       <c r="R3">
-        <v>1.158466731072</v>
+        <v>1.65285643297</v>
       </c>
       <c r="S3">
-        <v>0.001964433649375857</v>
+        <v>0.003944257745518522</v>
       </c>
       <c r="T3">
-        <v>0.002612209634575271</v>
+        <v>0.005024978700673218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H4">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I4">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J4">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N4">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O4">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P4">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q4">
-        <v>0.08627108731733332</v>
+        <v>0.2906435829305555</v>
       </c>
       <c r="R4">
-        <v>0.7764397858559999</v>
+        <v>2.615792246375</v>
       </c>
       <c r="S4">
-        <v>0.001316623430901888</v>
+        <v>0.006242138532197097</v>
       </c>
       <c r="T4">
-        <v>0.001750782681004369</v>
+        <v>0.007952475521302039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H5">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I5">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J5">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N5">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O5">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P5">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q5">
-        <v>3.303487585552</v>
+        <v>2.9380457740725</v>
       </c>
       <c r="R5">
-        <v>19.820925513312</v>
+        <v>17.628274644435</v>
       </c>
       <c r="S5">
-        <v>0.0504160697874662</v>
+        <v>0.06310027061591367</v>
       </c>
       <c r="T5">
-        <v>0.04469391412229899</v>
+        <v>0.05359310273471976</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H6">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I6">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J6">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.312462666666667</v>
+        <v>0.5368526666666666</v>
       </c>
       <c r="N6">
-        <v>3.937388</v>
+        <v>1.610558</v>
       </c>
       <c r="O6">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="P6">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
       <c r="Q6">
-        <v>0.2260795691093333</v>
+        <v>0.1319413851322222</v>
       </c>
       <c r="R6">
-        <v>2.034716121984</v>
+        <v>1.18747246619</v>
       </c>
       <c r="S6">
-        <v>0.003450306089717564</v>
+        <v>0.002833698909919116</v>
       </c>
       <c r="T6">
-        <v>0.004588051529588464</v>
+        <v>0.003610128339772722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.110073</v>
       </c>
       <c r="I7">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J7">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N7">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O7">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P7">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q7">
-        <v>17.21420291157733</v>
+        <v>13.474653555323</v>
       </c>
       <c r="R7">
-        <v>154.927826204196</v>
+        <v>121.271881997907</v>
       </c>
       <c r="S7">
-        <v>0.2627140053806706</v>
+        <v>0.2893944993300787</v>
       </c>
       <c r="T7">
-        <v>0.3493444821673098</v>
+        <v>0.3686881763439278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.110073</v>
       </c>
       <c r="I8">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J8">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.241754</v>
       </c>
       <c r="O8">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P8">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q8">
         <v>0.7746687320046666</v>
@@ -948,10 +948,10 @@
         <v>6.972018588041999</v>
       </c>
       <c r="S8">
-        <v>0.0118225819965929</v>
+        <v>0.01663752384613969</v>
       </c>
       <c r="T8">
-        <v>0.01572110241894316</v>
+        <v>0.0211961814751546</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.110073</v>
       </c>
       <c r="I9">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J9">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N9">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O9">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P9">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q9">
-        <v>0.5192066446573333</v>
+        <v>1.225982137508333</v>
       </c>
       <c r="R9">
-        <v>4.672859801915999</v>
+        <v>11.033839237575</v>
       </c>
       <c r="S9">
-        <v>0.007923855547586784</v>
+        <v>0.02633036058516601</v>
       </c>
       <c r="T9">
-        <v>0.01053676300595103</v>
+        <v>0.03354484155398701</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.110073</v>
       </c>
       <c r="I10">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J10">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N10">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O10">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P10">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q10">
-        <v>19.8814314076345</v>
+        <v>12.3931572886485</v>
       </c>
       <c r="R10">
-        <v>119.288588445807</v>
+        <v>74.358943731891</v>
       </c>
       <c r="S10">
-        <v>0.3034198274895396</v>
+        <v>0.2661672549830077</v>
       </c>
       <c r="T10">
-        <v>0.2689820878538934</v>
+        <v>0.2260644669458068</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.110073</v>
       </c>
       <c r="I11">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J11">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.312462666666667</v>
+        <v>0.5368526666666666</v>
       </c>
       <c r="N11">
-        <v>3.937388</v>
+        <v>1.610558</v>
       </c>
       <c r="O11">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="P11">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
       <c r="Q11">
-        <v>1.360618234369333</v>
+        <v>0.5565503278593333</v>
       </c>
       <c r="R11">
-        <v>12.245564109324</v>
+        <v>5.008952950734</v>
       </c>
       <c r="S11">
-        <v>0.0207650315254934</v>
+        <v>0.01195300516050871</v>
       </c>
       <c r="T11">
-        <v>0.02761234284007869</v>
+        <v>0.0152281114003865</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H12">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I12">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J12">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N12">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O12">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P12">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q12">
-        <v>8.301553758571334</v>
+        <v>5.403042443446501</v>
       </c>
       <c r="R12">
-        <v>49.809322551428</v>
+        <v>32.418254660679</v>
       </c>
       <c r="S12">
-        <v>0.1266938963134017</v>
+        <v>0.1160408879056248</v>
       </c>
       <c r="T12">
-        <v>0.1123143106061463</v>
+        <v>0.09855728297599158</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H13">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I13">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J13">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.241754</v>
       </c>
       <c r="O13">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P13">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q13">
-        <v>0.3735841942176666</v>
+        <v>0.310625280379</v>
       </c>
       <c r="R13">
-        <v>2.241505165306</v>
+        <v>1.863751682274</v>
       </c>
       <c r="S13">
-        <v>0.005701443192808311</v>
+        <v>0.006671284506534475</v>
       </c>
       <c r="T13">
-        <v>0.005054337109313721</v>
+        <v>0.005666137917340045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H14">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I14">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J14">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N14">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O14">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P14">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q14">
-        <v>0.2503875372313333</v>
+        <v>0.4915921212125</v>
       </c>
       <c r="R14">
-        <v>1.502325223388</v>
+        <v>2.949552727275</v>
       </c>
       <c r="S14">
-        <v>0.003821281365238534</v>
+        <v>0.01055790081791773</v>
       </c>
       <c r="T14">
-        <v>0.003387571103719227</v>
+        <v>0.008967166981609523</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H15">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I15">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J15">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N15">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O15">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P15">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q15">
-        <v>9.58782538323775</v>
+        <v>4.96938600788175</v>
       </c>
       <c r="R15">
-        <v>38.351301532951</v>
+        <v>19.877544031527</v>
       </c>
       <c r="S15">
-        <v>0.1463242894404833</v>
+        <v>0.1067272690777811</v>
       </c>
       <c r="T15">
-        <v>0.08647778712658566</v>
+        <v>0.06043128331517357</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H16">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I16">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J16">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.312462666666667</v>
+        <v>0.5368526666666666</v>
       </c>
       <c r="N16">
-        <v>3.937388</v>
+        <v>1.610558</v>
       </c>
       <c r="O16">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="P16">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
       <c r="Q16">
-        <v>0.6561584916553332</v>
+        <v>0.223164553433</v>
       </c>
       <c r="R16">
-        <v>3.936950949932</v>
+        <v>1.338987320598</v>
       </c>
       <c r="S16">
-        <v>0.01001394176615504</v>
+        <v>0.004792894596050748</v>
       </c>
       <c r="T16">
-        <v>0.008877372933054448</v>
+        <v>0.004070760552618775</v>
       </c>
     </row>
   </sheetData>
